--- a/public/documents/uploads/patient-import/export-patient.xlsx
+++ b/public/documents/uploads/patient-import/export-patient.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -575,9 +575,53 @@
         <v>Rerum et reiciendis</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Abigail</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Parrish</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Abigail Parrish</v>
+      </c>
+      <c r="D5" t="str">
+        <v>makocykuri@mailinator.com</v>
+      </c>
+      <c r="E5" t="str">
+        <v>female</v>
+      </c>
+      <c r="F5" t="str">
+        <v>8/11/1986</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5" t="str">
+        <v>+1 (816) 496-5368</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Alias Nam dolorem de</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Earum harum et tempo</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Odit dolorem provide</v>
+      </c>
+      <c r="L5">
+        <v>73</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Deleniti necessitati</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N5"/>
   </ignoredErrors>
 </worksheet>
 </file>